--- a/public/templates/finger-import-template.xlsx
+++ b/public/templates/finger-import-template.xlsx
@@ -397,55 +397,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="16" max="16" width="25.83203125" customWidth="1"/>
+    <col min="17" max="17" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Nama Depan</v>
+        <v>NIK</v>
       </c>
       <c r="B1" t="str">
-        <v>Nama Belakang</v>
+        <v>Nama Lengkap</v>
       </c>
       <c r="C1" t="str">
-        <v>Nomor Telepon</v>
+        <v>Nickname</v>
       </c>
       <c r="D1" t="str">
-        <v>Departemen</v>
+        <v>NISN</v>
       </c>
       <c r="E1" t="str">
-        <v>Status</v>
+        <v>Jenis Kelamin</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Tempat Lahir</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Tanggal Lahir</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Agama</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Jalan</v>
+      </c>
+      <c r="J1" t="str">
+        <v>RT</v>
+      </c>
+      <c r="K1" t="str">
+        <v>RW</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Dusun</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Kelurahan</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Kecamatan</v>
+      </c>
+      <c r="O1" t="str">
+        <v>No Telepon</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Group</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Contoh: 3578XXXXXXXXXXXX</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Contoh: Budi Santoso</v>
+      </c>
+      <c r="C2" t="str">
         <v>Contoh: Budi</v>
       </c>
-      <c r="B2" t="str">
-        <v>Contoh: Santoso</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
+        <v>Contoh: 1234567890</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Contoh: L atau P</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Contoh: Surabaya</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Contoh: 2005-08-17 (YYYY-MM-DD)</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Contoh: Islam</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Contoh: Jl. Melati No. 10</v>
+      </c>
+      <c r="J2" t="str">
+        <v>Contoh: 01</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Contoh: 05</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Contoh: Dusun Melati</v>
+      </c>
+      <c r="M2" t="str">
+        <v>Contoh: Kelurahan Sukamaju</v>
+      </c>
+      <c r="N2" t="str">
+        <v>Contoh: Kecamatan Sukamakmur</v>
+      </c>
+      <c r="O2" t="str">
         <v>Contoh: 08123456789</v>
       </c>
-      <c r="D2" t="str">
-        <v>Contoh: X-RPL/Divisi 2</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Contoh: true</v>
+      <c r="P2" t="str">
+        <v>Contoh: budi@example.com</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>Contoh: X-RPL atau nama Group</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/templates/finger-import-template.xlsx
+++ b/public/templates/finger-import-template.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Panduan" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Member" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -397,28 +398,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="80.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PANDUAN IMPORT FINGERPRINT DATA</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>CATATAN: Halaman ini untuk import data BIODATA member yang akan didaftarkan fingerprint.</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Template ini TIDAK mengandung data fingerprint template, hanya biodata member.</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>KOLOM WAJIB:</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>1. NIK - Nomor Induk Karyawan (wajib, unik)</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2. Nama Lengkap - Nama lengkap member (wajib)</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>3. Jenis Kelamin - L untuk Laki-laki, P untuk Perempuan (wajib)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>KOLOM OPSIONAL:</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>- Nickname - Nama panggilan</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>- NISN - Nomor Induk Siswa Nasional</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>- Tempat Lahir, Tanggal Lahir - Format: DD/MM/YYYY</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>- Agama - Nama agama</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>- Alamat - Jalan, RT, RW, Dusun, Kelurahan, Kecamatan</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>- No Telepon - Nomor telepon/HP</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>- Email - Alamat email</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>- Department/Group - Nama department/group</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>CATATAN PENTING:</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>✅ Jika NIK sudah ada di database, maka data akan di-UPDATE</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>✅ Jika NIK belum ada, maka data akan DIBUAT BARU</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>✅ Setelah import, member akan muncul di halaman Fingerprint</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>✅ Anda bisa mendaftarkan fingerprint member dari halaman Fingerprint</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>✅ Format Tanggal: DD/MM/YYYY (contoh: 01/01/1990)</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>✅ Jenis Kelamin: Hanya "L" atau "P"</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>PROSES LENGKAP FINGERPRINT:</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>1. Import biodata member menggunakan template ini</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2. Member akan muncul di halaman Fingerprint</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>3. Klik "Enroll" untuk daftarkan fingerprint ke device</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>4. Member scan jari di device fingerprint</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>5. Data fingerprint tersimpan dan siap digunakan untuk absensi</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>LANGKAH IMPORT:</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>1. Isi data member di sheet "Data Member"</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2. Upload file Excel di halaman Import Fingerprint</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>3. Mapping kolom akan otomatis terdeteksi</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>4. Test import untuk validasi data</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>5. Klik Import untuk proses ke database</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>6. Lanjutkan ke halaman Fingerprint untuk enroll sidik jari</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>TIPS:</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>💡 Gunakan format Excel (.xlsx) untuk hasil terbaik</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>💡 Pastikan NIK tidak ada yang duplicate di file Excel</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>💡 Email harus format valid (contoh: nama@domain.com)</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>💡 Import biodata dulu, baru enroll fingerprint di halaman Fingerprint</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A48"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
     <col min="9" max="9" width="30.83203125" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" customWidth="1"/>
     <col min="13" max="13" width="20.83203125" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
     <col min="16" max="16" width="25.83203125" customWidth="1"/>
-    <col min="17" max="17" width="22.83203125" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,65 +729,118 @@
         <v>Email</v>
       </c>
       <c r="Q1" t="str">
-        <v>Group</v>
+        <v>Department/Group</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Contoh: 3578XXXXXXXXXXXX</v>
+        <v>12345678</v>
       </c>
       <c r="B2" t="str">
-        <v>Contoh: Budi Santoso</v>
+        <v>Budi Santoso</v>
       </c>
       <c r="C2" t="str">
-        <v>Contoh: Budi</v>
+        <v>Budi</v>
       </c>
       <c r="D2" t="str">
-        <v>Contoh: 1234567890</v>
+        <v>1234567890</v>
       </c>
       <c r="E2" t="str">
-        <v>Contoh: L atau P</v>
+        <v>L</v>
       </c>
       <c r="F2" t="str">
-        <v>Contoh: Surabaya</v>
+        <v>Jakarta</v>
       </c>
       <c r="G2" t="str">
-        <v>Contoh: 2005-08-17 (YYYY-MM-DD)</v>
+        <v>01/01/1990</v>
       </c>
       <c r="H2" t="str">
-        <v>Contoh: Islam</v>
+        <v>Islam</v>
       </c>
       <c r="I2" t="str">
-        <v>Contoh: Jl. Melati No. 10</v>
+        <v>Jl. Sudirman No. 123</v>
       </c>
       <c r="J2" t="str">
-        <v>Contoh: 01</v>
+        <v>001</v>
       </c>
       <c r="K2" t="str">
-        <v>Contoh: 05</v>
+        <v>005</v>
       </c>
       <c r="L2" t="str">
-        <v>Contoh: Dusun Melati</v>
+        <v>Dusun Mawar</v>
       </c>
       <c r="M2" t="str">
-        <v>Contoh: Kelurahan Sukamaju</v>
+        <v>Kelurahan Menteng</v>
       </c>
       <c r="N2" t="str">
-        <v>Contoh: Kecamatan Sukamakmur</v>
+        <v>Kecamatan Menteng</v>
       </c>
       <c r="O2" t="str">
-        <v>Contoh: +628123456789</v>
+        <v>081234567890</v>
       </c>
       <c r="P2" t="str">
-        <v>Contoh: budi@example.com</v>
+        <v>budi@perusahaan.com</v>
       </c>
       <c r="Q2" t="str">
-        <v>Contoh: X-RPL atau nama Group</v>
+        <v>IT Department</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>87654321</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Siti Rahayu</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Siti</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0987654321</v>
+      </c>
+      <c r="E3" t="str">
+        <v>P</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Bandung</v>
+      </c>
+      <c r="G3" t="str">
+        <v>15/05/1992</v>
+      </c>
+      <c r="H3" t="str">
+        <v>Islam</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Jl. Asia Afrika No. 45</v>
+      </c>
+      <c r="J3" t="str">
+        <v>002</v>
+      </c>
+      <c r="K3" t="str">
+        <v>003</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Dusun Melati</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Kelurahan Cicadas</v>
+      </c>
+      <c r="N3" t="str">
+        <v>Kecamatan Gunung Putri</v>
+      </c>
+      <c r="O3" t="str">
+        <v>081298765432</v>
+      </c>
+      <c r="P3" t="str">
+        <v>siti@perusahaan.com</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>HR Department</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q3"/>
   </ignoredErrors>
 </worksheet>
 </file>